--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N2">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O2">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P2">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q2">
-        <v>6504.283294738791</v>
+        <v>10632.37433611524</v>
       </c>
       <c r="R2">
-        <v>58538.54965264912</v>
+        <v>95691.3690250372</v>
       </c>
       <c r="S2">
-        <v>0.008750290856681584</v>
+        <v>0.00540497945356337</v>
       </c>
       <c r="T2">
-        <v>0.008750290856681582</v>
+        <v>0.00540497945356337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.128831</v>
       </c>
       <c r="O3">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P3">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q3">
-        <v>5.715263702034333</v>
+        <v>13.06021858653233</v>
       </c>
       <c r="R3">
-        <v>51.43737331830899</v>
+        <v>117.541967278791</v>
       </c>
       <c r="S3">
-        <v>7.688813271077479E-06</v>
+        <v>6.639176809217318E-06</v>
       </c>
       <c r="T3">
-        <v>7.688813271077478E-06</v>
+        <v>6.639176809217317E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N4">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O4">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P4">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q4">
-        <v>1165.315400046069</v>
+        <v>2376.643745245565</v>
       </c>
       <c r="R4">
-        <v>10487.83860041463</v>
+        <v>21389.79370721009</v>
       </c>
       <c r="S4">
-        <v>0.00156771287905332</v>
+        <v>0.001208169521257246</v>
       </c>
       <c r="T4">
-        <v>0.00156771287905332</v>
+        <v>0.001208169521257245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N5">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O5">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P5">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q5">
-        <v>345.0052839839186</v>
+        <v>602.4156227845086</v>
       </c>
       <c r="R5">
-        <v>3105.047555855267</v>
+        <v>5421.740605060577</v>
       </c>
       <c r="S5">
-        <v>0.000464139774537996</v>
+        <v>0.0003062386594681836</v>
       </c>
       <c r="T5">
-        <v>0.0004641397745379958</v>
+        <v>0.0003062386594681835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N6">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O6">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P6">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q6">
-        <v>836.8981172049616</v>
+        <v>2014.825671181381</v>
       </c>
       <c r="R6">
-        <v>7532.083054844656</v>
+        <v>18133.43104063243</v>
       </c>
       <c r="S6">
-        <v>0.001125889142755536</v>
+        <v>0.001024238896316578</v>
       </c>
       <c r="T6">
-        <v>0.001125889142755536</v>
+        <v>0.001024238896316578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N7">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O7">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P7">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q7">
-        <v>1006.885588207455</v>
+        <v>16201.22757596805</v>
       </c>
       <c r="R7">
-        <v>9061.970293867094</v>
+        <v>145811.0481837124</v>
       </c>
       <c r="S7">
-        <v>0.00135457534012131</v>
+        <v>0.008235912262152921</v>
       </c>
       <c r="T7">
-        <v>0.00135457534012131</v>
+        <v>0.008235912262152921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N8">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O8">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P8">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q8">
-        <v>40896.72337512364</v>
+        <v>29255.34011809855</v>
       </c>
       <c r="R8">
-        <v>368070.5103761128</v>
+        <v>263298.061062887</v>
       </c>
       <c r="S8">
-        <v>0.05501885579108249</v>
+        <v>0.0148719850568302</v>
       </c>
       <c r="T8">
-        <v>0.05501885579108249</v>
+        <v>0.0148719850568302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>1.128831</v>
       </c>
       <c r="O9">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P9">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q9">
         <v>35.93563626403667</v>
@@ -1013,10 +1013,10 @@
         <v>323.42072637633</v>
       </c>
       <c r="S9">
-        <v>4.834464539461043E-05</v>
+        <v>1.826792111693195E-05</v>
       </c>
       <c r="T9">
-        <v>4.834464539461043E-05</v>
+        <v>1.826792111693194E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N10">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O10">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P10">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q10">
-        <v>7327.107292359958</v>
+        <v>6539.416212100243</v>
       </c>
       <c r="R10">
-        <v>65943.96563123963</v>
+        <v>58854.74590890218</v>
       </c>
       <c r="S10">
-        <v>0.009857245916413777</v>
+        <v>0.003324319587266826</v>
       </c>
       <c r="T10">
-        <v>0.009857245916413779</v>
+        <v>0.003324319587266825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N11">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O11">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P11">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q11">
-        <v>2169.276002086088</v>
+        <v>1657.567104005501</v>
       </c>
       <c r="R11">
-        <v>19523.48401877479</v>
+        <v>14918.10393604951</v>
       </c>
       <c r="S11">
-        <v>0.002918353199963898</v>
+        <v>0.0008426261018313309</v>
       </c>
       <c r="T11">
-        <v>0.002918353199963898</v>
+        <v>0.0008426261018313307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N12">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O12">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P12">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q12">
-        <v>5262.131005298968</v>
+        <v>5543.86145800657</v>
       </c>
       <c r="R12">
-        <v>47359.17904769072</v>
+        <v>49894.75312205912</v>
       </c>
       <c r="S12">
-        <v>0.007079208382509021</v>
+        <v>0.002818228208176077</v>
       </c>
       <c r="T12">
-        <v>0.007079208382509021</v>
+        <v>0.002818228208176077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N13">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O13">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P13">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q13">
-        <v>6330.954465748349</v>
+        <v>44578.22947934676</v>
       </c>
       <c r="R13">
-        <v>56978.59019173515</v>
+        <v>401204.0653141208</v>
       </c>
       <c r="S13">
-        <v>0.008517109490067187</v>
+        <v>0.02266139309953379</v>
       </c>
       <c r="T13">
-        <v>0.008517109490067188</v>
+        <v>0.02266139309953379</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N14">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O14">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P14">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q14">
-        <v>172185.0879163738</v>
+        <v>314946.2417292419</v>
       </c>
       <c r="R14">
-        <v>1549665.791247364</v>
+        <v>2834516.175563177</v>
       </c>
       <c r="S14">
-        <v>0.2316426779365962</v>
+        <v>0.1601032762495378</v>
       </c>
       <c r="T14">
-        <v>0.2316426779365962</v>
+        <v>0.1601032762495378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.128831</v>
       </c>
       <c r="O15">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P15">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q15">
-        <v>151.2977123545726</v>
+        <v>386.8624852700226</v>
       </c>
       <c r="R15">
-        <v>1361.679411191154</v>
+        <v>3481.762367430204</v>
       </c>
       <c r="S15">
-        <v>0.0002035426393748774</v>
+        <v>0.000196661979548297</v>
       </c>
       <c r="T15">
-        <v>0.0002035426393748774</v>
+        <v>0.000196661979548297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N16">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O16">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P16">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q16">
-        <v>30848.89226297066</v>
+        <v>70399.61083310445</v>
       </c>
       <c r="R16">
-        <v>277640.0303667359</v>
+        <v>633596.4974979402</v>
       </c>
       <c r="S16">
-        <v>0.04150138726672236</v>
+        <v>0.03578772135583155</v>
       </c>
       <c r="T16">
-        <v>0.04150138726672236</v>
+        <v>0.03578772135583155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N17">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O17">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P17">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q17">
-        <v>9133.176164457054</v>
+        <v>17844.41841090058</v>
       </c>
       <c r="R17">
-        <v>82198.58548011348</v>
+        <v>160599.7656981052</v>
       </c>
       <c r="S17">
-        <v>0.01228697217861883</v>
+        <v>0.009071230171429898</v>
       </c>
       <c r="T17">
-        <v>0.01228697217861883</v>
+        <v>0.009071230171429898</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N18">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O18">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P18">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q18">
-        <v>22154.84310232079</v>
+        <v>59682.03834986713</v>
       </c>
       <c r="R18">
-        <v>199393.5879208871</v>
+        <v>537138.3451488042</v>
       </c>
       <c r="S18">
-        <v>0.02980517794885471</v>
+        <v>0.03033943132834375</v>
       </c>
       <c r="T18">
-        <v>0.02980517794885471</v>
+        <v>0.03033943132834375</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N19">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O19">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P19">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q19">
-        <v>26654.84814713823</v>
+        <v>479903.6955573933</v>
       </c>
       <c r="R19">
-        <v>239893.633324244</v>
+        <v>4319133.26001654</v>
       </c>
       <c r="S19">
-        <v>0.03585908907393407</v>
+        <v>0.2439595834550502</v>
       </c>
       <c r="T19">
-        <v>0.03585908907393407</v>
+        <v>0.2439595834550503</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N20">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O20">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P20">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q20">
-        <v>15906.35407456576</v>
+        <v>14654.7931042822</v>
       </c>
       <c r="R20">
-        <v>143157.1866710918</v>
+        <v>131893.1379385398</v>
       </c>
       <c r="S20">
-        <v>0.02139901020830339</v>
+        <v>0.007449780558968546</v>
       </c>
       <c r="T20">
-        <v>0.02139901020830339</v>
+        <v>0.007449780558968546</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>1.128831</v>
       </c>
       <c r="O21">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P21">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q21">
-        <v>13.97679097827833</v>
+        <v>18.001134575578</v>
       </c>
       <c r="R21">
-        <v>125.791118804505</v>
+        <v>162.010211180202</v>
       </c>
       <c r="S21">
-        <v>1.880314567508242E-05</v>
+        <v>9.150897010025446E-06</v>
       </c>
       <c r="T21">
-        <v>1.880314567508242E-05</v>
+        <v>9.150897010025444E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N22">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O22">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P22">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q22">
-        <v>2849.801972289618</v>
+        <v>3275.770892570521</v>
       </c>
       <c r="R22">
-        <v>25648.21775060657</v>
+        <v>29481.93803313469</v>
       </c>
       <c r="S22">
-        <v>0.003833873005139521</v>
+        <v>0.001665241817980768</v>
       </c>
       <c r="T22">
-        <v>0.003833873005139522</v>
+        <v>0.001665241817980768</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N23">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O23">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P23">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q23">
-        <v>843.7172792094237</v>
+        <v>830.3203062280327</v>
       </c>
       <c r="R23">
-        <v>7593.455512884814</v>
+        <v>7472.882756052294</v>
       </c>
       <c r="S23">
-        <v>0.00113506304374262</v>
+        <v>0.0004220942616547016</v>
       </c>
       <c r="T23">
-        <v>0.001135063043742619</v>
+        <v>0.0004220942616547016</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N24">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O24">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P24">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q24">
-        <v>2046.650979573324</v>
+        <v>2777.070522438725</v>
       </c>
       <c r="R24">
-        <v>18419.85881615992</v>
+        <v>24993.63470194853</v>
       </c>
       <c r="S24">
-        <v>0.002753384276460559</v>
+        <v>0.001411726923862428</v>
       </c>
       <c r="T24">
-        <v>0.002753384276460559</v>
+        <v>0.001411726923862428</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N25">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O25">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P25">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q25">
-        <v>2462.358718532475</v>
+        <v>22330.44385530462</v>
       </c>
       <c r="R25">
-        <v>22161.22846679227</v>
+        <v>200973.9946977416</v>
       </c>
       <c r="S25">
-        <v>0.003312640917420278</v>
+        <v>0.01135170625218698</v>
       </c>
       <c r="T25">
-        <v>0.003312640917420278</v>
+        <v>0.01135170625218698</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N26">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O26">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P26">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q26">
-        <v>172336.1527281274</v>
+        <v>131180.3809222077</v>
       </c>
       <c r="R26">
-        <v>1551025.374553147</v>
+        <v>1180623.428299869</v>
       </c>
       <c r="S26">
-        <v>0.2318459072519802</v>
+        <v>0.06668569419972156</v>
       </c>
       <c r="T26">
-        <v>0.2318459072519802</v>
+        <v>0.06668569419972156</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.128831</v>
       </c>
       <c r="O27">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P27">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q27">
-        <v>151.430451842714</v>
+        <v>161.134700016081</v>
       </c>
       <c r="R27">
-        <v>1362.874066584426</v>
+        <v>1450.212300144729</v>
       </c>
       <c r="S27">
-        <v>0.0002037212154111247</v>
+        <v>8.19130060051316E-05</v>
       </c>
       <c r="T27">
-        <v>0.0002037212154111247</v>
+        <v>8.191300600513159E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N28">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O28">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P28">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q28">
-        <v>30875.95722056313</v>
+        <v>29322.61618730843</v>
       </c>
       <c r="R28">
-        <v>277883.6149850682</v>
+        <v>263903.5456857759</v>
       </c>
       <c r="S28">
-        <v>0.04153779808098523</v>
+        <v>0.01490618492228836</v>
       </c>
       <c r="T28">
-        <v>0.04153779808098524</v>
+        <v>0.01490618492228835</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N29">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O29">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P29">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q29">
-        <v>9141.189062407115</v>
+        <v>7432.498929419207</v>
       </c>
       <c r="R29">
-        <v>82270.70156166403</v>
+        <v>66892.49036477286</v>
       </c>
       <c r="S29">
-        <v>0.01229775202698808</v>
+        <v>0.00377831919119774</v>
       </c>
       <c r="T29">
-        <v>0.01229775202698808</v>
+        <v>0.00377831919119774</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N30">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O30">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P30">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q30">
-        <v>22174.28042551284</v>
+        <v>24858.56786848099</v>
       </c>
       <c r="R30">
-        <v>199568.5238296156</v>
+        <v>223727.1108163289</v>
       </c>
       <c r="S30">
-        <v>0.02983132721445379</v>
+        <v>0.01263688093803905</v>
       </c>
       <c r="T30">
-        <v>0.02983132721445379</v>
+        <v>0.01263688093803905</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N31">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O31">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P31">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q31">
-        <v>26678.23350336387</v>
+        <v>199887.9213275874</v>
       </c>
       <c r="R31">
-        <v>240104.1015302748</v>
+        <v>1798991.291948287</v>
       </c>
       <c r="S31">
-        <v>0.03589054967604637</v>
+        <v>0.1016132496502981</v>
       </c>
       <c r="T31">
-        <v>0.03589054967604637</v>
+        <v>0.1016132496502981</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>428.2238463333333</v>
+        <v>306.3285573333333</v>
       </c>
       <c r="N32">
-        <v>1284.671539</v>
+        <v>918.985672</v>
       </c>
       <c r="O32">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="P32">
-        <v>0.6593892347944894</v>
+        <v>0.3339256162712134</v>
       </c>
       <c r="Q32">
-        <v>82309.89284517836</v>
+        <v>156210.7308731174</v>
       </c>
       <c r="R32">
-        <v>740789.0356066051</v>
+        <v>1405896.577858057</v>
       </c>
       <c r="S32">
-        <v>0.1107324927498456</v>
+        <v>0.07940990075259191</v>
       </c>
       <c r="T32">
-        <v>0.1107324927498456</v>
+        <v>0.07940990075259191</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>1.128831</v>
       </c>
       <c r="O33">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="P33">
-        <v>0.0005794002487839798</v>
+        <v>0.0004101756956892469</v>
       </c>
       <c r="Q33">
-        <v>72.32506973933633</v>
+        <v>191.880592826296</v>
       </c>
       <c r="R33">
-        <v>650.9256276540269</v>
+        <v>1726.925335436664</v>
       </c>
       <c r="S33">
-        <v>9.729978965720745E-05</v>
+        <v>9.754271519964359E-05</v>
       </c>
       <c r="T33">
-        <v>9.729978965720744E-05</v>
+        <v>9.754271519964359E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>76.72111133333333</v>
+        <v>68.47330866666667</v>
       </c>
       <c r="N34">
-        <v>230.163334</v>
+        <v>205.419926</v>
       </c>
       <c r="O34">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503109</v>
       </c>
       <c r="P34">
-        <v>0.1181369868302255</v>
+        <v>0.07464205098503107</v>
       </c>
       <c r="Q34">
-        <v>14746.74170268903</v>
+        <v>34917.62467474215</v>
       </c>
       <c r="R34">
-        <v>132720.6753242013</v>
+        <v>314258.6220726794</v>
       </c>
       <c r="S34">
-        <v>0.01983896968191127</v>
+        <v>0.01775041378040634</v>
       </c>
       <c r="T34">
-        <v>0.01983896968191127</v>
+        <v>0.01775041378040633</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.71418433333333</v>
+        <v>17.35615233333333</v>
       </c>
       <c r="N35">
-        <v>68.14255299999999</v>
+        <v>52.068457</v>
       </c>
       <c r="O35">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="P35">
-        <v>0.03497583975012693</v>
+        <v>0.01891976351946451</v>
       </c>
       <c r="Q35">
-        <v>4365.945742047677</v>
+        <v>8850.683934716979</v>
       </c>
       <c r="R35">
-        <v>39293.51167842909</v>
+        <v>79656.15541245282</v>
       </c>
       <c r="S35">
-        <v>0.005873559526275511</v>
+        <v>0.004499255133882653</v>
       </c>
       <c r="T35">
-        <v>0.005873559526275509</v>
+        <v>0.004499255133882653</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>55.09903466666666</v>
+        <v>58.04899466666667</v>
       </c>
       <c r="N36">
-        <v>165.297104</v>
+        <v>174.146984</v>
       </c>
       <c r="O36">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612003</v>
       </c>
       <c r="P36">
-        <v>0.08484280036681434</v>
+        <v>0.06327861328612001</v>
       </c>
       <c r="Q36">
-        <v>10590.71249328759</v>
+        <v>29601.79737164508</v>
       </c>
       <c r="R36">
-        <v>95316.41243958836</v>
+        <v>266416.1763448057</v>
       </c>
       <c r="S36">
-        <v>0.01424781340178073</v>
+        <v>0.01504810699138214</v>
       </c>
       <c r="T36">
-        <v>0.01424781340178073</v>
+        <v>0.01504810699138214</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>66.29053499999999</v>
+        <v>466.7723796666667</v>
       </c>
       <c r="N37">
-        <v>198.871605</v>
+        <v>1400.317139</v>
       </c>
       <c r="O37">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="P37">
-        <v>0.1020757380095598</v>
+        <v>0.5088237802424818</v>
       </c>
       <c r="Q37">
-        <v>12741.85657622686</v>
+        <v>238028.2635541926</v>
       </c>
       <c r="R37">
-        <v>114676.7091860418</v>
+        <v>2142254.371987734</v>
       </c>
       <c r="S37">
-        <v>0.01714177351197057</v>
+        <v>0.1210019355232597</v>
       </c>
       <c r="T37">
-        <v>0.01714177351197056</v>
+        <v>0.1210019355232597</v>
       </c>
     </row>
   </sheetData>
